--- a/data/Coinco.xlsx
+++ b/data/Coinco.xlsx
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
